--- a/lpc/лаборатория рябиновое/Протокол Ag атомно-абсорбционный[AA Ag].xlsx
+++ b/lpc/лаборатория рябиновое/Протокол Ag атомно-абсорбционный[AA Ag].xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C35FBD-2F65-4CF0-94A2-6516EB9E4B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9702F78-08BB-4065-8244-B5E3E70ADEAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29834" yWindow="550" windowWidth="18890" windowHeight="12502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -1438,7 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1685,26 +1685,68 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1745,6 +1787,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1772,65 +1823,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1838,10 +1844,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2306,7 +2309,7 @@
   <dimension ref="A1:AK280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D51"/>
+      <selection activeCell="G56" sqref="G55:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2340,88 +2343,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="1:28" ht="24.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:28" ht="19.649999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -2460,68 +2463,68 @@
         <v>"Рябиновый"</v>
       </c>
       <c r="D9" s="94"/>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="140"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="138"/>
-      <c r="K9" s="139" t="s">
+      <c r="I9" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="139"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="141" t="str">
+      <c r="S9" s="102" t="str">
         <f>K9</f>
         <v>"Рябиновый"</v>
       </c>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
       <c r="V9" s="86"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="138" t="s">
+      <c r="R10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="5"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
@@ -2540,17 +2543,17 @@
       <c r="F11" s="92"/>
       <c r="G11" s="92"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="138"/>
-      <c r="K11" s="139" t="s">
+      <c r="I11" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="98"/>
+      <c r="K11" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="83" t="s">
@@ -2568,50 +2571,50 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:28" ht="15.05" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="140" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="138" t="s">
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
     </row>
     <row r="13" spans="1:28" ht="15.05" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
       <c r="I13" s="8" t="s">
         <v>50</v>
       </c>
@@ -2636,10 +2639,10 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="95" t="str">
         <f>K14</f>
         <v>16.05.2019-19.05.2019</v>
@@ -2649,44 +2652,44 @@
       <c r="F14" s="91"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="136" t="s">
+      <c r="J14" s="104"/>
+      <c r="K14" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="97" t="s">
+      <c r="R14" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="97"/>
-      <c r="T14" s="125" t="str">
+      <c r="S14" s="104"/>
+      <c r="T14" s="107" t="str">
         <f>K14</f>
         <v>16.05.2019-19.05.2019</v>
       </c>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
     <row r="15" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
       <c r="R15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2703,34 +2706,34 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="134" t="s">
+      <c r="H16" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="116" t="s">
+      <c r="I16" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="118" t="s">
+      <c r="J16" s="135" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="84" t="s">
@@ -2741,19 +2744,19 @@
       </c>
       <c r="M16" s="84"/>
       <c r="N16" s="84"/>
-      <c r="O16" s="120" t="s">
+      <c r="O16" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="104" t="s">
+      <c r="P16" s="118" t="s">
         <v>8</v>
       </c>
       <c r="Q16" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="116" t="s">
+      <c r="R16" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="S16" s="122" t="s">
+      <c r="S16" s="139" t="s">
         <v>52</v>
       </c>
       <c r="T16" s="84" t="s">
@@ -2768,27 +2771,27 @@
       <c r="W16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="X16" s="104" t="s">
+      <c r="X16" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="106" t="s">
+      <c r="Y16" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="AB16" s="109" t="s">
+      <c r="AB16" s="123" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="112"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="126"/>
       <c r="K17" s="85" t="s">
         <v>15</v>
       </c>
@@ -2799,13 +2802,13 @@
         <v>16</v>
       </c>
       <c r="N17" s="12"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="105"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="119"/>
       <c r="Q17" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="117"/>
-      <c r="S17" s="123"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="140"/>
       <c r="T17" s="85" t="s">
         <v>15</v>
       </c>
@@ -2818,21 +2821,21 @@
       <c r="W17" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="107"/>
-      <c r="AB17" s="110"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="121"/>
+      <c r="AB17" s="124"/>
     </row>
     <row r="18" spans="1:37" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="112"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="126"/>
       <c r="K18" s="85" t="s">
         <v>20</v>
       </c>
@@ -2845,15 +2848,15 @@
       <c r="N18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="121"/>
-      <c r="P18" s="112" t="s">
+      <c r="O18" s="138"/>
+      <c r="P18" s="126" t="s">
         <v>35</v>
       </c>
       <c r="Q18" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="117"/>
-      <c r="S18" s="123"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="140"/>
       <c r="T18" s="85" t="s">
         <v>20</v>
       </c>
@@ -2864,11 +2867,11 @@
       <c r="W18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="114" t="s">
+      <c r="X18" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="107"/>
-      <c r="AB18" s="110"/>
+      <c r="Y18" s="121"/>
+      <c r="AB18" s="124"/>
     </row>
     <row r="19" spans="1:37" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58">
@@ -2895,8 +2898,8 @@
       <c r="H19" s="58">
         <v>8</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="119"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="136"/>
       <c r="K19" s="13" t="s">
         <v>37</v>
       </c>
@@ -2912,10 +2915,10 @@
       <c r="O19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="113"/>
+      <c r="P19" s="127"/>
       <c r="Q19" s="82"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="124"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="141"/>
       <c r="T19" s="16" t="s">
         <v>28</v>
       </c>
@@ -2928,9 +2931,9 @@
       <c r="W19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="X19" s="115"/>
-      <c r="Y19" s="108"/>
-      <c r="AB19" s="111"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="122"/>
+      <c r="AB19" s="125"/>
       <c r="AK19" s="50"/>
     </row>
     <row r="20" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5522,18 +5525,18 @@
       <c r="AE47" s="36"/>
     </row>
     <row r="48" spans="1:31" ht="21.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="101" t="s">
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="101"/>
-      <c r="H48" s="102"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="132"/>
       <c r="I48" s="19">
         <v>29</v>
       </c>
@@ -5581,12 +5584,12 @@
       <c r="AE48" s="36"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="81"/>
       <c r="F49" s="81"/>
       <c r="G49" s="27"/>
@@ -5681,17 +5684,17 @@
     </row>
     <row r="51" spans="1:31" ht="24.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="81"/>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
       <c r="E51" s="81"/>
-      <c r="F51" s="98" t="s">
+      <c r="F51" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
       <c r="I51" s="26">
         <v>32</v>
       </c>
@@ -5986,7 +5989,7 @@
         <f t="shared" si="18"/>
         <v>РМЭ-71323</v>
       </c>
-      <c r="G55" s="72" t="str">
+      <c r="G55" s="149" t="str">
         <f t="shared" si="19"/>
         <v>НПО</v>
       </c>
@@ -6063,7 +6066,7 @@
         <f t="shared" si="18"/>
         <v>РМЭ-71324</v>
       </c>
-      <c r="G56" s="72" t="str">
+      <c r="G56" s="149" t="str">
         <f t="shared" si="19"/>
         <v>НПО</v>
       </c>
@@ -8891,18 +8894,18 @@
       <c r="AE92" s="36"/>
     </row>
     <row r="93" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="100" t="s">
+      <c r="A93" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="100"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="101" t="s">
+      <c r="B93" s="130"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G93" s="101"/>
-      <c r="H93" s="102"/>
+      <c r="G93" s="131"/>
+      <c r="H93" s="132"/>
       <c r="I93" s="19">
         <v>74</v>
       </c>
@@ -8950,12 +8953,12 @@
       <c r="AE93" s="36"/>
     </row>
     <row r="94" spans="1:31" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="103" t="s">
+      <c r="A94" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B94" s="103"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="103"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="117"/>
       <c r="E94" s="81"/>
       <c r="F94" s="81"/>
       <c r="G94" s="27"/>
@@ -9065,17 +9068,17 @@
     </row>
     <row r="96" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="81"/>
-      <c r="B96" s="96" t="s">
+      <c r="B96" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="97"/>
-      <c r="D96" s="97"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="104"/>
       <c r="E96" s="81"/>
-      <c r="F96" s="98" t="s">
+      <c r="F96" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
+      <c r="G96" s="144"/>
+      <c r="H96" s="144"/>
       <c r="I96" s="19">
         <v>77</v>
       </c>
@@ -12238,18 +12241,18 @@
       <c r="AE137" s="36"/>
     </row>
     <row r="138" spans="1:31" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="100" t="s">
+      <c r="A138" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B138" s="100"/>
-      <c r="C138" s="100"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100"/>
-      <c r="F138" s="101" t="s">
+      <c r="B138" s="130"/>
+      <c r="C138" s="130"/>
+      <c r="D138" s="130"/>
+      <c r="E138" s="130"/>
+      <c r="F138" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G138" s="101"/>
-      <c r="H138" s="102"/>
+      <c r="G138" s="131"/>
+      <c r="H138" s="132"/>
       <c r="I138" s="19">
         <v>119</v>
       </c>
@@ -12297,12 +12300,12 @@
       <c r="AE138" s="36"/>
     </row>
     <row r="139" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="103" t="s">
+      <c r="A139" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B139" s="103"/>
-      <c r="C139" s="103"/>
-      <c r="D139" s="103"/>
+      <c r="B139" s="117"/>
+      <c r="C139" s="117"/>
+      <c r="D139" s="117"/>
       <c r="E139" s="81"/>
       <c r="F139" s="81"/>
       <c r="G139" s="27"/>
@@ -12412,17 +12415,17 @@
     </row>
     <row r="141" spans="1:31" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="81"/>
-      <c r="B141" s="96" t="s">
+      <c r="B141" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="97"/>
-      <c r="D141" s="97"/>
+      <c r="C141" s="104"/>
+      <c r="D141" s="104"/>
       <c r="E141" s="81"/>
-      <c r="F141" s="98" t="s">
+      <c r="F141" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="G141" s="99"/>
-      <c r="H141" s="99"/>
+      <c r="G141" s="144"/>
+      <c r="H141" s="144"/>
       <c r="I141" s="19">
         <v>122</v>
       </c>
@@ -14940,17 +14943,17 @@
     </row>
     <row r="186" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="81"/>
-      <c r="B186" s="96" t="s">
+      <c r="B186" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C186" s="97"/>
-      <c r="D186" s="97"/>
+      <c r="C186" s="104"/>
+      <c r="D186" s="104"/>
       <c r="E186" s="81"/>
-      <c r="F186" s="98" t="s">
+      <c r="F186" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="G186" s="99"/>
-      <c r="H186" s="99"/>
+      <c r="G186" s="144"/>
+      <c r="H186" s="144"/>
       <c r="I186" s="19">
         <v>167</v>
       </c>
@@ -18091,41 +18094,18 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="R12:Z12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="F141:H141"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="X16:X17"/>
     <mergeCell ref="Y16:Y19"/>
@@ -18142,18 +18122,41 @@
     <mergeCell ref="S16:S19"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="R12:Z12"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18201,98 +18204,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="1:28" ht="24.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:28" ht="19.649999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="8" t="s">
         <v>282</v>
       </c>
@@ -18306,77 +18309,77 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="140" t="str">
+      <c r="A9" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="97" t="str">
         <f>K9</f>
         <v>"Рябиновый"</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140" t="s">
+      <c r="D9" s="97"/>
+      <c r="E9" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="140"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="138"/>
-      <c r="K9" s="139" t="s">
+      <c r="I9" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="139"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="141" t="str">
+      <c r="S9" s="102" t="str">
         <f>K9</f>
         <v>"Рябиновый"</v>
       </c>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
       <c r="V9" s="7"/>
       <c r="W9" s="5"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="138" t="s">
+      <c r="R10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="5"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
@@ -18385,27 +18388,27 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="145" t="str">
+      <c r="B11" s="147" t="str">
         <f>K11</f>
         <v>353,376,403,404,411</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="138"/>
-      <c r="K11" s="139" t="s">
+      <c r="I11" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="98"/>
+      <c r="K11" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="31" t="s">
@@ -18423,50 +18426,50 @@
       <c r="Y11" s="6"/>
     </row>
     <row r="12" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138" t="s">
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
     </row>
     <row r="13" spans="1:28" ht="31.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
       <c r="I13" s="8" t="s">
         <v>50</v>
       </c>
@@ -18491,57 +18494,57 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="147" t="str">
+      <c r="B14" s="104"/>
+      <c r="C14" s="145" t="str">
         <f>K14</f>
         <v>16.05.2019-19.05.2019</v>
       </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="136" t="s">
+      <c r="J14" s="104"/>
+      <c r="K14" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="97" t="s">
+      <c r="R14" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="97"/>
-      <c r="T14" s="125" t="str">
+      <c r="S14" s="104"/>
+      <c r="T14" s="107" t="str">
         <f>K14</f>
         <v>16.05.2019-19.05.2019</v>
       </c>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
     <row r="15" spans="1:28" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
       <c r="R15" s="1" t="s">
         <v>43</v>
       </c>
@@ -18558,34 +18561,34 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="134" t="s">
+      <c r="H16" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="116" t="s">
+      <c r="I16" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="118" t="s">
+      <c r="J16" s="135" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -18596,19 +18599,19 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="120" t="s">
+      <c r="O16" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="104" t="s">
+      <c r="P16" s="118" t="s">
         <v>8</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="116" t="s">
+      <c r="R16" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="S16" s="122" t="s">
+      <c r="S16" s="139" t="s">
         <v>52</v>
       </c>
       <c r="T16" s="9" t="s">
@@ -18623,27 +18626,27 @@
       <c r="W16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X16" s="104" t="s">
+      <c r="X16" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="106" t="s">
+      <c r="Y16" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="AB16" s="109" t="s">
+      <c r="AB16" s="123" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="112"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="126"/>
       <c r="K17" s="10" t="s">
         <v>15</v>
       </c>
@@ -18654,13 +18657,13 @@
         <v>16</v>
       </c>
       <c r="N17" s="12"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="105"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="119"/>
       <c r="Q17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="117"/>
-      <c r="S17" s="123"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="140"/>
       <c r="T17" s="10" t="s">
         <v>15</v>
       </c>
@@ -18673,21 +18676,21 @@
       <c r="W17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="107"/>
-      <c r="AB17" s="110"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="121"/>
+      <c r="AB17" s="124"/>
     </row>
     <row r="18" spans="1:37" ht="34.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="112"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="126"/>
       <c r="K18" s="10" t="s">
         <v>20</v>
       </c>
@@ -18700,15 +18703,15 @@
       <c r="N18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="121"/>
-      <c r="P18" s="112" t="s">
+      <c r="O18" s="138"/>
+      <c r="P18" s="126" t="s">
         <v>35</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="117"/>
-      <c r="S18" s="123"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="140"/>
       <c r="T18" s="10" t="s">
         <v>20</v>
       </c>
@@ -18719,11 +18722,11 @@
       <c r="W18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="114" t="s">
+      <c r="X18" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="107"/>
-      <c r="AB18" s="110"/>
+      <c r="Y18" s="121"/>
+      <c r="AB18" s="124"/>
     </row>
     <row r="19" spans="1:37" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58">
@@ -18750,8 +18753,8 @@
       <c r="H19" s="58">
         <v>8</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="119"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="136"/>
       <c r="K19" s="13" t="s">
         <v>37</v>
       </c>
@@ -18767,10 +18770,10 @@
       <c r="O19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="113"/>
+      <c r="P19" s="127"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="124"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="141"/>
       <c r="T19" s="16" t="s">
         <v>28</v>
       </c>
@@ -18783,9 +18786,9 @@
       <c r="W19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="X19" s="115"/>
-      <c r="Y19" s="108"/>
-      <c r="AB19" s="111"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="122"/>
+      <c r="AB19" s="125"/>
       <c r="AK19" s="50"/>
     </row>
     <row r="20" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21377,18 +21380,18 @@
       <c r="AE47" s="36"/>
     </row>
     <row r="48" spans="1:31" ht="21.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="101" t="s">
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="101"/>
-      <c r="H48" s="102"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="132"/>
       <c r="I48" s="19">
         <v>29</v>
       </c>
@@ -21436,12 +21439,12 @@
       <c r="AE48" s="36"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
       <c r="G49" s="27"/>
@@ -21536,17 +21539,17 @@
     </row>
     <row r="51" spans="1:31" ht="24.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="57"/>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
       <c r="E51" s="63"/>
-      <c r="F51" s="98" t="s">
+      <c r="F51" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
       <c r="I51" s="26">
         <v>32</v>
       </c>
@@ -24746,18 +24749,18 @@
       <c r="AE92" s="36"/>
     </row>
     <row r="93" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="100" t="s">
+      <c r="A93" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="100"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="101" t="s">
+      <c r="B93" s="130"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G93" s="101"/>
-      <c r="H93" s="102"/>
+      <c r="G93" s="131"/>
+      <c r="H93" s="132"/>
       <c r="I93" s="19">
         <v>74</v>
       </c>
@@ -24805,12 +24808,12 @@
       <c r="AE93" s="36"/>
     </row>
     <row r="94" spans="1:31" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="103" t="s">
+      <c r="A94" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B94" s="103"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="103"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="117"/>
       <c r="E94" s="57"/>
       <c r="F94" s="57"/>
       <c r="G94" s="27"/>
@@ -24920,17 +24923,17 @@
     </row>
     <row r="96" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="57"/>
-      <c r="B96" s="96" t="s">
+      <c r="B96" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="97"/>
-      <c r="D96" s="97"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="104"/>
       <c r="E96" s="63"/>
-      <c r="F96" s="98" t="s">
+      <c r="F96" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
+      <c r="G96" s="144"/>
+      <c r="H96" s="144"/>
       <c r="I96" s="19">
         <v>77</v>
       </c>
@@ -28093,18 +28096,18 @@
       <c r="AE137" s="36"/>
     </row>
     <row r="138" spans="1:31" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="100" t="s">
+      <c r="A138" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B138" s="100"/>
-      <c r="C138" s="100"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100"/>
-      <c r="F138" s="101" t="s">
+      <c r="B138" s="130"/>
+      <c r="C138" s="130"/>
+      <c r="D138" s="130"/>
+      <c r="E138" s="130"/>
+      <c r="F138" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="G138" s="101"/>
-      <c r="H138" s="102"/>
+      <c r="G138" s="131"/>
+      <c r="H138" s="132"/>
       <c r="I138" s="19">
         <v>119</v>
       </c>
@@ -28152,12 +28155,12 @@
       <c r="AE138" s="36"/>
     </row>
     <row r="139" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="103" t="s">
+      <c r="A139" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B139" s="103"/>
-      <c r="C139" s="103"/>
-      <c r="D139" s="103"/>
+      <c r="B139" s="117"/>
+      <c r="C139" s="117"/>
+      <c r="D139" s="117"/>
       <c r="E139" s="67"/>
       <c r="F139" s="67"/>
       <c r="G139" s="27"/>
@@ -28267,17 +28270,17 @@
     </row>
     <row r="141" spans="1:31" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="67"/>
-      <c r="B141" s="96" t="s">
+      <c r="B141" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="97"/>
-      <c r="D141" s="97"/>
+      <c r="C141" s="104"/>
+      <c r="D141" s="104"/>
       <c r="E141" s="67"/>
-      <c r="F141" s="98" t="s">
+      <c r="F141" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="G141" s="99"/>
-      <c r="H141" s="99"/>
+      <c r="G141" s="144"/>
+      <c r="H141" s="144"/>
       <c r="I141" s="19">
         <v>122</v>
       </c>
@@ -30795,17 +30798,17 @@
     </row>
     <row r="186" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="67"/>
-      <c r="B186" s="96" t="s">
+      <c r="B186" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C186" s="97"/>
-      <c r="D186" s="97"/>
+      <c r="C186" s="104"/>
+      <c r="D186" s="104"/>
       <c r="E186" s="67"/>
-      <c r="F186" s="98" t="s">
+      <c r="F186" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="G186" s="99"/>
-      <c r="H186" s="99"/>
+      <c r="G186" s="144"/>
+      <c r="H186" s="144"/>
       <c r="I186" s="19">
         <v>167</v>
       </c>
@@ -33946,6 +33949,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="AB16:AB19"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="S16:S19"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="Y16:Y19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="B186:D186"/>
     <mergeCell ref="F186:H186"/>
     <mergeCell ref="I10:N10"/>
@@ -33962,58 +34017,6 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="AB16:AB19"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="S16:S19"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="Y16:Y19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="F16:F18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
